--- a/biology/Médecine/Maternité_de_Riga/Maternité_de_Riga.xlsx
+++ b/biology/Médecine/Maternité_de_Riga/Maternité_de_Riga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maternit%C3%A9_de_Riga</t>
+          <t>Maternité_de_Riga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maternité de Riga (en letton : Rīgas Dzemdību nams) est un hôpital situé dans le quartier de Brasa à Rīga en Lettonie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maternit%C3%A9_de_Riga</t>
+          <t>Maternité_de_Riga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maternité de Riga est une institution médicale, une société à responsabilité limitée. 
 Elle est situé au 45, rue Miera, à Riga. 
-La maternité a été fondée en 1947, c'était la première maternité de la ville de Riga et elle a reçu son nom actuel en 2000[1].
-À sa fondation, la maternité était située dans un bâtiment destiné à l'école d'infirmières Diakonia, le nouveau bâtiment a été construit en 1978[1].
+La maternité a été fondée en 1947, c'était la première maternité de la ville de Riga et elle a reçu son nom actuel en 2000.
+À sa fondation, la maternité était située dans un bâtiment destiné à l'école d'infirmières Diakonia, le nouveau bâtiment a été construit en 1978.
 En 1947, elle comptait 56 lits, en 1955 220 lits et en 2003  260 lits. 
-En 2003, 63 médecins et 4 pharmaciens travaillaient dans l'établissement[1]. 
-La maternité accueille en moyenne 7 000 naissances chaque année, soit environ un tiers de toutes les naissances du pays[2].
-En outre, la maternité organise diverses conférences et séances d'exercices pour les femmes enceintes[1].
+En 2003, 63 médecins et 4 pharmaciens travaillaient dans l'établissement. 
+La maternité accueille en moyenne 7 000 naissances chaque année, soit environ un tiers de toutes les naissances du pays.
+En outre, la maternité organise diverses conférences et séances d'exercices pour les femmes enceintes.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maternit%C3%A9_de_Riga</t>
+          <t>Maternité_de_Riga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
